--- a/Data_preparation/datasets/final_data/ERICSSON_LM_TEL_SP_ADR.xlsx
+++ b/Data_preparation/datasets/final_data/ERICSSON_LM_TEL_SP_ADR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,115 +148,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
     <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
   <si>
     <t>SEK</t>
@@ -766,19 +658,19 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>2.032020008087158</v>
+        <v>0.9684485262140959</v>
       </c>
       <c r="E2">
-        <v>2.063819927215576</v>
+        <v>0.839988709449768</v>
       </c>
       <c r="F2">
-        <v>2.236600040435791</v>
+        <v>1.007678785470919</v>
       </c>
       <c r="G2">
-        <v>1.975839935302735</v>
+        <v>0.8361425926554288</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>3071530678</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -868,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM2">
         <v>-1.732899902699272</v>
@@ -894,22 +786,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>14.32951744679068</v>
+        <v>0.8434628221141974</v>
       </c>
       <c r="E3">
-        <v>15.52962756347656</v>
+        <v>0.8513975162506103</v>
       </c>
       <c r="F3">
-        <v>15.84289550882167</v>
+        <v>0.8791691349069878</v>
       </c>
       <c r="G3">
-        <v>14.19128542006837</v>
+        <v>0.7871261683579025</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>3071530678</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>29565233800</v>
@@ -996,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM3">
         <v>-1.753809561249594</v>
@@ -1022,22 +914,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>2.198439975738525</v>
+        <v>0.7776044388320439</v>
       </c>
       <c r="E4">
-        <v>2.355319927215576</v>
+        <v>0.7728435621261597</v>
       </c>
       <c r="F4">
-        <v>2.469799919128418</v>
+        <v>0.8394953819791302</v>
       </c>
       <c r="G4">
-        <v>2.128479991912841</v>
+        <v>0.7514198061286008</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>3071530678</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>28326613200</v>
@@ -1124,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM4">
         <v>1.35154373011872</v>
@@ -1150,22 +1042,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>9.00788035583496</v>
+        <v>0.7545936331377625</v>
       </c>
       <c r="E5">
-        <v>6.594259902954102</v>
+        <v>0.7061916809082031</v>
       </c>
       <c r="F5">
-        <v>9.081019805908204</v>
+        <v>0.7649088020445284</v>
       </c>
       <c r="G5">
-        <v>6.113019805908203</v>
+        <v>0.6784201421637366</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>3071530678</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>28361073800</v>
@@ -1252,7 +1144,7 @@
         <v>91690000</v>
       </c>
       <c r="AL5" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM5">
         <v>0.1389650617907766</v>
@@ -1278,22 +1170,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>2.233290938714775</v>
+        <v>0.7871261880322288</v>
       </c>
       <c r="E6">
-        <v>1.956094734191894</v>
+        <v>0.6419204568862915</v>
       </c>
       <c r="F6">
-        <v>2.249840027095528</v>
+        <v>0.80934343810971</v>
       </c>
       <c r="G6">
-        <v>1.934580982426438</v>
+        <v>0.6387465640180798</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>3071530678</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>28076792400</v>
@@ -1380,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM6">
         <v>0.6736403865717192</v>
@@ -1406,22 +1298,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>10.18058029178139</v>
+        <v>0.6345964281286791</v>
       </c>
       <c r="E7">
-        <v>10.1690248260498</v>
+        <v>0.6188557806015015</v>
       </c>
       <c r="F7">
-        <v>10.73347667279308</v>
+        <v>0.6536508920295985</v>
       </c>
       <c r="G7">
-        <v>9.857020469522405</v>
+        <v>0.5766046020843889</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>3071530678</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>22226323800</v>
@@ -1508,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM7">
         <v>-1.321249527410208</v>
@@ -1534,22 +1426,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>1.069424639725309</v>
+        <v>0.5989730137164909</v>
       </c>
       <c r="E8">
-        <v>1.063743747711182</v>
+        <v>0.4034576072692871</v>
       </c>
       <c r="F8">
-        <v>1.085520409806602</v>
+        <v>0.5998014482397021</v>
       </c>
       <c r="G8">
-        <v>0.9988870590476351</v>
+        <v>0.4001437901688104</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>3071530678</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>21433708800</v>
@@ -1630,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO8">
         <v>0.1537904299475292</v>
@@ -1650,22 +1542,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>4.873879951477051</v>
+        <v>0.4788468940310222</v>
       </c>
       <c r="E9">
-        <v>5.624360145568848</v>
+        <v>0.4879598684310913</v>
       </c>
       <c r="F9">
-        <v>5.639200080871582</v>
+        <v>0.5045289882112055</v>
       </c>
       <c r="G9">
-        <v>4.834660064697266</v>
+        <v>0.4763615122376738</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>3071530678</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>18532828000</v>
@@ -1746,7 +1638,7 @@
         <v>101442000</v>
       </c>
       <c r="AL9" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO9">
         <v>0.1363183316721613</v>
@@ -1766,22 +1658,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>0.563065392814055</v>
+        <v>0.5630653407895776</v>
       </c>
       <c r="E10">
-        <v>0.5470500545501709</v>
+        <v>0.5470500040054321</v>
       </c>
       <c r="F10">
-        <v>0.5647512157790328</v>
+        <v>0.5647511635987936</v>
       </c>
       <c r="G10">
-        <v>0.5226056014613978</v>
+        <v>0.5226055531752064</v>
       </c>
       <c r="H10">
         <v>3071530678</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>20740553600</v>
@@ -1862,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO10">
         <v>0.1955616899221463</v>
@@ -1882,19 +1774,19 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>7.441199676513672</v>
+        <v>0.6043680818567434</v>
       </c>
       <c r="E11">
-        <v>6.540200080871582</v>
+        <v>0.5411496639251708</v>
       </c>
       <c r="F11">
-        <v>8.260050323486327</v>
+        <v>0.6296554249134598</v>
       </c>
       <c r="G11">
-        <v>6.466</v>
+        <v>0.5091189891934758</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>3071530678</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -1978,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO11">
         <v>0.1675043553134825</v>
@@ -1998,22 +1890,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>3.645698379271712</v>
+        <v>0.4829886498972171</v>
       </c>
       <c r="E12">
-        <v>3.563336555480957</v>
+        <v>0.5268200788497924</v>
       </c>
       <c r="F12">
-        <v>3.718593459595251</v>
+        <v>0.5571649266456316</v>
       </c>
       <c r="G12">
-        <v>3.426066608407621</v>
+        <v>0.4686591373215934</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>3071530678</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>16256035980</v>
@@ -2094,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO12">
         <v>0.220102100594192</v>
@@ -2114,22 +2006,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>0.9277119846343994</v>
+        <v>0.5622224655541561</v>
       </c>
       <c r="E13">
-        <v>0.9760480194091796</v>
+        <v>0.542835482597351</v>
       </c>
       <c r="F13">
-        <v>0.9843160266876221</v>
+        <v>0.621226305756682</v>
       </c>
       <c r="G13">
-        <v>0.9217760105133056</v>
+        <v>0.5293488997380736</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>3071530678</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>18896291400</v>
@@ -2210,7 +2102,7 @@
         <v>111925400</v>
       </c>
       <c r="AL13" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO13">
         <v>0.1736743649364499</v>
@@ -2230,22 +2122,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>3.813074995313133</v>
+        <v>0.529348854183417</v>
       </c>
       <c r="E14">
-        <v>3.382850391387939</v>
+        <v>0.6363986968994141</v>
       </c>
       <c r="F14">
-        <v>3.895776546917043</v>
+        <v>0.6684293284337086</v>
       </c>
       <c r="G14">
-        <v>3.34237944074894</v>
+        <v>0.505747296017595</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>3071530678</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>18432882720</v>
@@ -2326,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO14">
         <v>0.209002326599249</v>
@@ -2346,22 +2238,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>2.370555324554443</v>
+        <v>0.647459786475672</v>
       </c>
       <c r="E15">
-        <v>2.424554290771485</v>
+        <v>0.6758345108032227</v>
       </c>
       <c r="F15">
-        <v>2.651349948883057</v>
+        <v>0.721406066329555</v>
       </c>
       <c r="G15">
-        <v>2.332755947113037</v>
+        <v>0.6423007084157701</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>3071530678</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>24153732400</v>
@@ -2442,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO15">
         <v>0.1964142306456794</v>
@@ -2462,22 +2354,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>4.241762736963953</v>
+        <v>0.764397919422201</v>
       </c>
       <c r="E16">
-        <v>4.249921730041504</v>
+        <v>0.7446215534210204</v>
       </c>
       <c r="F16">
-        <v>4.507382866705461</v>
+        <v>0.8125489216845819</v>
       </c>
       <c r="G16">
-        <v>3.840159619811678</v>
+        <v>0.7024894059412506</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>3071530678</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>27791997960</v>
@@ -2558,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO16">
         <v>0.174465712692808</v>
@@ -2578,22 +2470,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>4.539145390184478</v>
+        <v>0.7308642365382071</v>
       </c>
       <c r="E17">
-        <v>4.955754341125489</v>
+        <v>0.7661176748275756</v>
       </c>
       <c r="F17">
-        <v>4.977531745774551</v>
+        <v>0.79019317965921</v>
       </c>
       <c r="G17">
-        <v>4.434992978536076</v>
+        <v>0.7102280895396634</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>3071530678</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>26950864640</v>
@@ -2674,7 +2566,7 @@
         <v>136411400</v>
       </c>
       <c r="AL17" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO17">
         <v>0.1671394317416038</v>
@@ -2694,22 +2586,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>8.863720291137694</v>
+        <v>0.8066183672757692</v>
       </c>
       <c r="E18">
-        <v>11.02717987060547</v>
+        <v>0.8614370155334472</v>
       </c>
       <c r="F18">
-        <v>11.12788035583496</v>
+        <v>0.9101648042971103</v>
       </c>
       <c r="G18">
-        <v>8.695285812377929</v>
+        <v>0.8048780505778785</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>3071530678</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>30401118000</v>
@@ -2790,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO18">
         <v>0.1874412137570032</v>
@@ -2810,22 +2702,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>1.561379951477051</v>
+        <v>0.8179300720055613</v>
       </c>
       <c r="E19">
-        <v>1.780799919128418</v>
+        <v>0.7578905582427978</v>
       </c>
       <c r="F19">
-        <v>1.946160064697265</v>
+        <v>0.8449043992213837</v>
       </c>
       <c r="G19">
-        <v>1.479760004043579</v>
+        <v>0.7361370979981513</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>3071530678</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>30938788160</v>
@@ -2906,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO19">
         <v>0.1736544426199599</v>
@@ -2926,22 +2818,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>4.506678598356317</v>
+        <v>0.6987211846906163</v>
       </c>
       <c r="E20">
-        <v>4.479126350402832</v>
+        <v>0.7587607870101929</v>
       </c>
       <c r="F20">
-        <v>4.648714637058411</v>
+        <v>0.8040079453686165</v>
       </c>
       <c r="G20">
-        <v>4.232106758720205</v>
+        <v>0.6647857951760803</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>3071530678</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>27581971680</v>
@@ -3022,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO20">
         <v>0.1662436326080487</v>
@@ -3042,22 +2934,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>7.876859741210938</v>
+        <v>0.7796440693861332</v>
       </c>
       <c r="E21">
-        <v>8.32206022644043</v>
+        <v>0.6839288463592529</v>
       </c>
       <c r="F21">
-        <v>8.507560226440429</v>
+        <v>0.7909558794097793</v>
       </c>
       <c r="G21">
-        <v>7.478300323486328</v>
+        <v>0.680448295812198</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>3071530678</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>28642077680</v>
@@ -3138,7 +3030,7 @@
         <v>133560000</v>
       </c>
       <c r="AL21" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO21">
         <v>0.1602006840130776</v>
@@ -3158,22 +3050,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>2.809</v>
+        <v>0.6795780141177368</v>
       </c>
       <c r="E22">
-        <v>3.208620048522949</v>
+        <v>0.7361370124816894</v>
       </c>
       <c r="F22">
-        <v>3.392</v>
+        <v>0.7596307036655739</v>
       </c>
       <c r="G22">
-        <v>2.297020008087158</v>
+        <v>0.6630453812734166</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>3071530678</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>28500858120</v>
@@ -3260,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM22">
         <v>-4.364783158882278</v>
@@ -3286,22 +3178,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>27.18582012939453</v>
+        <v>0.8118351654583164</v>
       </c>
       <c r="E23">
-        <v>29.7595</v>
+        <v>1.014793998718262</v>
       </c>
       <c r="F23">
-        <v>30.50997857666016</v>
+        <v>1.048181170084392</v>
       </c>
       <c r="G23">
-        <v>26.60069967651367</v>
+        <v>0.8083207307771835</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>3071530678</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>30339693120</v>
@@ -3388,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM23">
         <v>0.6470943069278815</v>
@@ -3414,22 +3306,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>15.07319967651367</v>
+        <v>0.9462626626367585</v>
       </c>
       <c r="E24">
-        <v>14.3895</v>
+        <v>0.9849214515686034</v>
       </c>
       <c r="F24">
-        <v>16.82601519775391</v>
+        <v>1.100019356158588</v>
       </c>
       <c r="G24">
-        <v>14.18385974121094</v>
+        <v>0.9225401611309741</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>3071530678</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>34649203680</v>
@@ -3510,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO24">
         <v>0.1757551503340757</v>
@@ -3530,22 +3422,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>3.170883953094483</v>
+        <v>1.082106913948109</v>
       </c>
       <c r="E25">
-        <v>3.068700080871582</v>
+        <v>1.104244943618774</v>
       </c>
       <c r="F25">
-        <v>3.292572029113769</v>
+        <v>1.356618431194435</v>
       </c>
       <c r="G25">
-        <v>2.910971988677979</v>
+        <v>1.022776987674734</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>3071530678</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>34444267520</v>
@@ -3632,7 +3524,7 @@
         <v>155290000</v>
       </c>
       <c r="AL25" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM25">
         <v>0.1544490683365025</v>
@@ -3658,22 +3550,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>56.17257922363281</v>
+        <v>1.184998252628464</v>
       </c>
       <c r="E26">
-        <v>54.42781689453125</v>
+        <v>1.232362411499023</v>
       </c>
       <c r="F26">
-        <v>59.73735974121094</v>
+        <v>1.285982275099734</v>
       </c>
       <c r="G26">
-        <v>52.894</v>
+        <v>1.163550341278749</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>3071530678</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>40762342400</v>
@@ -3760,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM26">
         <v>0.6325074967891582</v>
@@ -3786,22 +3678,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>4.926587672726129</v>
+        <v>1.1331659387068</v>
       </c>
       <c r="E27">
-        <v>5.142038795471191</v>
+        <v>1.03039453125</v>
       </c>
       <c r="F27">
-        <v>5.168041761498364</v>
+        <v>1.197509683040352</v>
       </c>
       <c r="G27">
-        <v>4.860652276166006</v>
+        <v>1.011627584512771</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>3071530678</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>37955127440</v>
@@ -3888,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM27">
         <v>0.5001507126471364</v>
@@ -3914,22 +3806,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>14.72513950709495</v>
+        <v>1.017766612992632</v>
       </c>
       <c r="E28">
-        <v>15.5449333190918</v>
+        <v>0.9816435241699218</v>
       </c>
       <c r="F28">
-        <v>15.89464191932623</v>
+        <v>1.105364916067934</v>
       </c>
       <c r="G28">
-        <v>14.34845095232274</v>
+        <v>0.9771281273015791</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>3071530678</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>34980318000</v>
@@ -4016,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM28">
         <v>1.924455610280615</v>
@@ -4042,22 +3934,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>1.808359943389892</v>
+        <v>0.9906743743801992</v>
       </c>
       <c r="E29">
-        <v>1.651479991912842</v>
+        <v>1.118008073806763</v>
       </c>
       <c r="F29">
-        <v>2.083959983825684</v>
+        <v>1.118911170456719</v>
       </c>
       <c r="G29">
-        <v>1.392840036392212</v>
+        <v>0.9518420796724534</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>3071530678</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>35223874200</v>
@@ -4144,7 +4036,7 @@
         <v>142676000</v>
       </c>
       <c r="AL29" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM29">
         <v>0.245178321336881</v>
@@ -4170,22 +4062,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>16.02932012939453</v>
+        <v>0.864185871988511</v>
       </c>
       <c r="E30">
-        <v>12.64685974121094</v>
+        <v>0.7294718294143676</v>
       </c>
       <c r="F30">
-        <v>17.13066006469727</v>
+        <v>0.8980934714996188</v>
       </c>
       <c r="G30">
-        <v>12.6012797088623</v>
+        <v>0.7248897024757203</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>3071530678</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>30462174000</v>
@@ -4272,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM30">
         <v>-2.932556077753315</v>
@@ -4298,22 +4190,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>0.3392000050544738</v>
+        <v>0.6781522671201573</v>
       </c>
       <c r="E31">
-        <v>0.4165800070762634</v>
+        <v>0.690982162475586</v>
       </c>
       <c r="F31">
-        <v>0.4812399959564209</v>
+        <v>0.6973971320025028</v>
       </c>
       <c r="G31">
-        <v>0.3296599888801575</v>
+        <v>0.6121698607525718</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>3071530678</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>26921784600</v>
@@ -4400,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM31">
         <v>0.6202938778071729</v>
@@ -4426,22 +4318,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>26.977</v>
+        <v>0.5561315019637594</v>
       </c>
       <c r="E32">
-        <v>24.11923928833008</v>
+        <v>0.5206138925552368</v>
       </c>
       <c r="F32">
-        <v>27.295</v>
+        <v>0.6112773307933028</v>
       </c>
       <c r="G32">
-        <v>21.05053961181641</v>
+        <v>0.4822921944981516</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>3071530678</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>23116660200</v>
@@ -4528,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM32">
         <v>-1.064062773905715</v>
@@ -4554,22 +4446,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>2.832319927215576</v>
+        <v>0.5495888455469713</v>
       </c>
       <c r="E33">
-        <v>3.045379951477051</v>
+        <v>0.539307409286499</v>
       </c>
       <c r="F33">
-        <v>3.151379951477051</v>
+        <v>0.6009959377117893</v>
       </c>
       <c r="G33">
-        <v>2.824899959564209</v>
+        <v>0.5140711890608102</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>3071530678</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>21497401436.1666</v>
@@ -4656,7 +4548,7 @@
         <v>49926000</v>
       </c>
       <c r="AL33" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM33">
         <v>-0.2103509542406749</v>
@@ -4682,22 +4574,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>27.68598025287814</v>
+        <v>0.5541093082706396</v>
       </c>
       <c r="E34">
-        <v>23.89894186401367</v>
+        <v>0.5253989629745484</v>
       </c>
       <c r="F34">
-        <v>27.82780203758502</v>
+        <v>0.5780345808061035</v>
       </c>
       <c r="G34">
-        <v>23.74170534972178</v>
+        <v>0.5005167032672604</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>3071530678</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>21391502906.9244</v>
@@ -4784,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM34">
         <v>-0.6810629021628658</v>
@@ -4810,22 +4702,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>1.952520008087158</v>
+        <v>0.5225279249561489</v>
       </c>
       <c r="E35">
-        <v>2.018240097045898</v>
+        <v>0.4832904949188233</v>
       </c>
       <c r="F35">
-        <v>2.055339935302735</v>
+        <v>0.5502812358070133</v>
       </c>
       <c r="G35">
-        <v>1.863479991912842</v>
+        <v>0.4660642705052983</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>3071530678</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>20618443643.45634</v>
@@ -4906,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO35">
         <v>0.2137825088448886</v>
@@ -4926,22 +4818,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>6.63740063914851</v>
+        <v>0.4714665598410741</v>
       </c>
       <c r="E36">
-        <v>6.855365936279297</v>
+        <v>0.4380709981918335</v>
       </c>
       <c r="F36">
-        <v>7.063286894462541</v>
+        <v>0.4871820962237789</v>
       </c>
       <c r="G36">
-        <v>6.440528683707742</v>
+        <v>0.4253021014628894</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>3071530678</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>18824370793.36812</v>
@@ -5022,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO36">
         <v>0.1845268562033719</v>
@@ -5042,22 +4934,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>122.1544025878906</v>
+        <v>0.6148709471126226</v>
       </c>
       <c r="E37">
-        <v>127.0759753417969</v>
+        <v>0.5412043027877808</v>
       </c>
       <c r="F37">
-        <v>138.5568415527344</v>
+        <v>0.6187998310630682</v>
       </c>
       <c r="G37">
-        <v>117.9981337890625</v>
+        <v>0.5402220583821737</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>3071530678</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>22277520601.58414</v>
@@ -5144,7 +5036,7 @@
         <v>145326000</v>
       </c>
       <c r="AL37" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM37">
         <v>-0.3521851133660815</v>
@@ -5170,22 +5062,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>11.09396038818359</v>
+        <v>0.5441509381518426</v>
       </c>
       <c r="E38">
-        <v>9.855880355834961</v>
+        <v>0.493075400352478</v>
       </c>
       <c r="F38">
-        <v>11.13106022644043</v>
+        <v>0.5500442640322319</v>
       </c>
       <c r="G38">
-        <v>9.611019805908205</v>
+        <v>0.4685198524328606</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>3071530678</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>20380123920</v>
@@ -5272,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM38">
         <v>0.2641398287501354</v>
@@ -5298,22 +5190,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>5.720820129394531</v>
+        <v>0.6297497011491203</v>
       </c>
       <c r="E39">
-        <v>5.579839935302735</v>
+        <v>0.693127028465271</v>
       </c>
       <c r="F39">
-        <v>6.983279708862304</v>
+        <v>0.7001689750423262</v>
       </c>
       <c r="G39">
-        <v>5.330740097045898</v>
+        <v>0.6156658079950099</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>3071530678</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>23699183200</v>
@@ -5394,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO39">
         <v>0.2552299157866595</v>
@@ -5414,22 +5306,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>3.869331982603784</v>
+        <v>0.7605282913102668</v>
       </c>
       <c r="E40">
-        <v>4.20089859008789</v>
+        <v>0.8430194730758667</v>
       </c>
       <c r="F40">
-        <v>4.362715546715634</v>
+        <v>0.8671632055130186</v>
       </c>
       <c r="G40">
-        <v>3.632423534000702</v>
+        <v>0.7353785460369008</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>3071530678</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>27105022560</v>
@@ -5510,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO40">
         <v>0.2126420040780658</v>
@@ -5530,22 +5422,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>1.373760004043579</v>
+        <v>0.8367518496645877</v>
       </c>
       <c r="E41">
-        <v>1.507320028305054</v>
+        <v>0.7671078462600708</v>
       </c>
       <c r="F41">
-        <v>1.626570028305054</v>
+        <v>0.9115166552357564</v>
       </c>
       <c r="G41">
-        <v>1.337719987869263</v>
+        <v>0.7640353454254717</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>3071530678</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>31744896960</v>
@@ -5632,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM41">
         <v>0.3897518605787074</v>
@@ -5658,22 +5550,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>19.91316006469727</v>
+        <v>0.8170632310549679</v>
       </c>
       <c r="E42">
-        <v>19.5485198059082</v>
+        <v>0.8576561679840088</v>
       </c>
       <c r="F42">
-        <v>21.02403961181641</v>
+        <v>0.8795139147068812</v>
       </c>
       <c r="G42">
-        <v>17.10628051757812</v>
+        <v>0.6911209950351224</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>3071530678</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>27444188640</v>
@@ -5760,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AM42">
         <v>0.2555840186430834</v>
@@ -5786,22 +5678,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>11.13853057181542</v>
+        <v>0.8774323192028349</v>
       </c>
       <c r="E43">
-        <v>10.93687057495117</v>
+        <v>0.7514900274276733</v>
       </c>
       <c r="F43">
-        <v>11.58701229535797</v>
+        <v>0.8992900669885441</v>
       </c>
       <c r="G43">
-        <v>10.75306644539199</v>
+        <v>0.7452449637219499</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>3071530678</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>28595940120</v>
@@ -5882,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AO43">
         <v>0.2122140668424428</v>
